--- a/Datos/CompiladodecirugiasfinalConProgramación.xlsx
+++ b/Datos/CompiladodecirugiasfinalConProgramación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly Rodriguez\Documents\AnalisisPruebaPilotoOptiSurge\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C9F07-AE6C-4E5A-A7DB-CA3561D131CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F406C-A312-4D43-97C6-85CEF8B91E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,6 +56,7 @@
     <author>tc={5152DD22-C367-4AA4-BDAA-205A5F887A54}</author>
     <author>tc={83FB1F1E-1843-425C-B3EE-6DAC5DA21852}</author>
     <author>tc={28FCC4ED-310A-4804-999A-695452B59E1B}</author>
+    <author>tc={6211BAB7-249A-43CF-A5A6-4BA749F4B0AC}</author>
   </authors>
   <commentList>
     <comment ref="F14" authorId="0" shapeId="0" xr:uid="{E92627FA-ABDB-4008-A2A9-D51B78D3258F}">
@@ -171,6 +172,14 @@
       </text>
     </comment>
     <comment ref="F52" authorId="14" shapeId="0" xr:uid="{28FCC4ED-310A-4804-999A-695452B59E1B}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Ghips</t>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="15" shapeId="0" xr:uid="{6211BAB7-249A-43CF-A5A6-4BA749F4B0AC}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -918,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1130,9 +1139,6 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,44 +1177,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,6 +1572,9 @@
   <threadedComment ref="F52" dT="2024-04-16T14:00:45.23" personId="{EA386103-BC88-414A-9BA0-D5FA2A095802}" id="{28FCC4ED-310A-4804-999A-695452B59E1B}">
     <text>Ghips</text>
   </threadedComment>
+  <threadedComment ref="D53" dT="2024-04-17T03:43:37.14" personId="{EA386103-BC88-414A-9BA0-D5FA2A095802}" id="{6211BAB7-249A-43CF-A5A6-4BA749F4B0AC}">
+    <text>Ghips</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1604,10 +1583,10 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1657,7 +1636,7 @@
       <c r="H1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="76" t="s">
         <v>156</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1934,167 +1913,167 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88">
+    <row r="6" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>45384</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="12">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="87">
         <v>0.375</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="99"/>
-    </row>
-    <row r="7" spans="1:35" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="88">
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="33"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="36"/>
+    </row>
+    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>45384</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="12">
         <v>0.375</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="87">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="95"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="99"/>
-    </row>
-    <row r="8" spans="1:35" s="96" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="88">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="33"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="36"/>
+    </row>
+    <row r="8" spans="1:35" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <v>45384</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="87">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="99"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="33"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="1:35" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
@@ -3269,7 +3248,7 @@
       <c r="D23" s="24">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="88" t="s">
         <v>119</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -3324,7 +3303,7 @@
       <c r="D24" s="40">
         <v>0.375</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="13" t="s">
         <v>188</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -3423,7 +3402,7 @@
       <c r="D25" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -5441,75 +5420,75 @@
       <c r="J47" s="39">
         <v>27</v>
       </c>
-      <c r="K47" s="78">
+      <c r="K47" s="77">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L47" s="78">
+      <c r="L47" s="77">
         <v>0.375</v>
       </c>
-      <c r="M47" s="79" t="s">
+      <c r="M47" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="N47" s="80" t="s">
+      <c r="N47" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="O47" s="78">
+      <c r="O47" s="77">
         <v>0.29399305555555555</v>
       </c>
-      <c r="P47" s="78">
+      <c r="P47" s="77">
         <v>0.29305555555555557</v>
       </c>
-      <c r="Q47" s="78">
+      <c r="Q47" s="77">
         <v>0.29409722222222223</v>
       </c>
-      <c r="R47" s="78">
+      <c r="R47" s="77">
         <v>0.29375000000000001</v>
       </c>
-      <c r="S47" s="80"/>
-      <c r="T47" s="78">
+      <c r="S47" s="79"/>
+      <c r="T47" s="77">
         <v>0.31129629629629629</v>
       </c>
-      <c r="U47" s="78">
+      <c r="U47" s="77">
         <v>0.31041666666666667</v>
       </c>
-      <c r="V47" s="78">
+      <c r="V47" s="77">
         <v>0.33158564814814817</v>
       </c>
-      <c r="W47" s="78">
+      <c r="W47" s="77">
         <v>0.31944444444444442</v>
       </c>
-      <c r="X47" s="78">
+      <c r="X47" s="77">
         <v>0.34361111111111109</v>
       </c>
-      <c r="Y47" s="78">
+      <c r="Y47" s="77">
         <v>0.34375</v>
       </c>
-      <c r="Z47" s="78">
+      <c r="Z47" s="77">
         <v>0.35266203703703702</v>
       </c>
-      <c r="AA47" s="78">
+      <c r="AA47" s="77">
         <v>0.35208333333333336</v>
       </c>
-      <c r="AB47" s="78">
+      <c r="AB47" s="77">
         <v>0.3601273148148148</v>
       </c>
-      <c r="AC47" s="78">
+      <c r="AC47" s="77">
         <v>0.35972222222222222</v>
       </c>
-      <c r="AD47" s="80"/>
-      <c r="AE47" s="78">
+      <c r="AD47" s="79"/>
+      <c r="AE47" s="77">
         <v>0.36731481481481482</v>
       </c>
-      <c r="AF47" s="78">
+      <c r="AF47" s="77">
         <v>0.36666666666666664</v>
       </c>
-      <c r="AG47" s="78">
+      <c r="AG47" s="77">
         <v>0.37231481481481482</v>
       </c>
-      <c r="AH47" s="78">
+      <c r="AH47" s="77">
         <v>0.37152777777777779</v>
       </c>
-      <c r="AI47" s="79"/>
+      <c r="AI47" s="78"/>
     </row>
     <row r="48" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -5542,75 +5521,75 @@
       <c r="J48" s="7">
         <v>28</v>
       </c>
-      <c r="K48" s="78">
+      <c r="K48" s="77">
         <v>0.375</v>
       </c>
-      <c r="L48" s="78">
+      <c r="L48" s="77">
         <v>0.45833333333333331</v>
       </c>
-      <c r="M48" s="79" t="s">
+      <c r="M48" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="N48" s="80" t="s">
+      <c r="N48" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="78">
+      <c r="O48" s="77">
         <v>0.37475694444444446</v>
       </c>
-      <c r="P48" s="78">
+      <c r="P48" s="77">
         <v>0.37361111111111112</v>
       </c>
-      <c r="Q48" s="78">
+      <c r="Q48" s="77">
         <v>0.37483796296296296</v>
       </c>
-      <c r="R48" s="78">
+      <c r="R48" s="77">
         <v>0.37361111111111112</v>
       </c>
-      <c r="S48" s="80"/>
-      <c r="T48" s="78">
+      <c r="S48" s="79"/>
+      <c r="T48" s="77">
         <v>0.38535879629629627</v>
       </c>
-      <c r="U48" s="78">
+      <c r="U48" s="77">
         <v>0.3840277777777778</v>
       </c>
-      <c r="V48" s="78">
+      <c r="V48" s="77">
         <v>0.40266203703703701</v>
       </c>
-      <c r="W48" s="78">
+      <c r="W48" s="77">
         <v>0.40208333333333335</v>
       </c>
-      <c r="X48" s="78">
+      <c r="X48" s="77">
         <v>0.45425925925925925</v>
       </c>
-      <c r="Y48" s="78">
+      <c r="Y48" s="77">
         <v>0.43958333333333333</v>
       </c>
-      <c r="Z48" s="78">
+      <c r="Z48" s="77">
         <v>0.45429398148148148</v>
       </c>
-      <c r="AA48" s="78">
+      <c r="AA48" s="77">
         <v>0.44930555555555557</v>
       </c>
-      <c r="AB48" s="78">
+      <c r="AB48" s="77">
         <v>0.45432870370370371</v>
       </c>
-      <c r="AC48" s="78">
+      <c r="AC48" s="77">
         <v>0.45208333333333334</v>
       </c>
-      <c r="AD48" s="80"/>
-      <c r="AE48" s="78">
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="77">
         <v>0.45956018518518521</v>
       </c>
-      <c r="AF48" s="78">
+      <c r="AF48" s="77">
         <v>0.45902777777777776</v>
       </c>
-      <c r="AG48" s="78">
+      <c r="AG48" s="77">
         <v>0.46356481481481482</v>
       </c>
-      <c r="AH48" s="78">
+      <c r="AH48" s="77">
         <v>0.46319444444444446</v>
       </c>
-      <c r="AI48" s="79"/>
+      <c r="AI48" s="78"/>
     </row>
     <row r="49" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -5643,75 +5622,75 @@
       <c r="J49" s="7">
         <v>29</v>
       </c>
-      <c r="K49" s="78">
+      <c r="K49" s="77">
         <v>0.45833333333333331</v>
       </c>
-      <c r="L49" s="78">
+      <c r="L49" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M49" s="79" t="s">
+      <c r="M49" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="N49" s="80" t="s">
+      <c r="N49" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="O49" s="78">
+      <c r="O49" s="77">
         <v>0.47114583333333332</v>
       </c>
-      <c r="P49" s="78">
+      <c r="P49" s="77">
         <v>0.47083333333333333</v>
       </c>
-      <c r="Q49" s="78">
+      <c r="Q49" s="77">
         <v>0.47121527777777777</v>
       </c>
-      <c r="R49" s="78">
+      <c r="R49" s="77">
         <v>0.47013888888888888</v>
       </c>
-      <c r="S49" s="80"/>
-      <c r="T49" s="78">
+      <c r="S49" s="79"/>
+      <c r="T49" s="77">
         <v>0.47924768518518518</v>
       </c>
-      <c r="U49" s="78">
+      <c r="U49" s="77">
         <v>0.48333333333333334</v>
       </c>
-      <c r="V49" s="78">
+      <c r="V49" s="77">
         <v>0.49827546296296299</v>
       </c>
-      <c r="W49" s="78">
+      <c r="W49" s="77">
         <v>0.49791666666666667</v>
       </c>
-      <c r="X49" s="78">
+      <c r="X49" s="77">
         <v>0.54137731481481477</v>
       </c>
-      <c r="Y49" s="78">
+      <c r="Y49" s="77">
         <v>0.54097222222222219</v>
       </c>
-      <c r="Z49" s="78">
+      <c r="Z49" s="77">
         <v>0.54899305555555555</v>
       </c>
-      <c r="AA49" s="78">
+      <c r="AA49" s="77">
         <v>0.54861111111111116</v>
       </c>
-      <c r="AB49" s="78">
+      <c r="AB49" s="77">
         <v>0.55060185185185184</v>
       </c>
-      <c r="AC49" s="78">
+      <c r="AC49" s="77">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AD49" s="80"/>
-      <c r="AE49" s="78">
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="77">
         <v>0.55107638888888888</v>
       </c>
-      <c r="AF49" s="78">
+      <c r="AF49" s="77">
         <v>0.55069444444444449</v>
       </c>
-      <c r="AG49" s="78">
+      <c r="AG49" s="77">
         <v>0.55393518518518514</v>
       </c>
-      <c r="AH49" s="78">
+      <c r="AH49" s="77">
         <v>0.55347222222222225</v>
       </c>
-      <c r="AI49" s="79"/>
+      <c r="AI49" s="78"/>
     </row>
     <row r="50" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -5744,73 +5723,73 @@
       <c r="J50" s="7">
         <v>30</v>
       </c>
-      <c r="K50" s="78">
+      <c r="K50" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="L50" s="81">
+      <c r="L50" s="80">
         <v>0.625</v>
       </c>
-      <c r="M50" s="87"/>
-      <c r="N50" s="80" t="s">
+      <c r="M50" s="86"/>
+      <c r="N50" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="O50" s="78">
+      <c r="O50" s="77">
         <v>0.56270833333333337</v>
       </c>
-      <c r="P50" s="78">
+      <c r="P50" s="77">
         <v>0.56180555555555556</v>
       </c>
-      <c r="Q50" s="78">
+      <c r="Q50" s="77">
         <v>0.56285879629629632</v>
       </c>
-      <c r="R50" s="78">
+      <c r="R50" s="77">
         <v>0.56180555555555556</v>
       </c>
-      <c r="S50" s="80"/>
-      <c r="T50" s="78">
+      <c r="S50" s="79"/>
+      <c r="T50" s="77">
         <v>0.57640046296296299</v>
       </c>
-      <c r="U50" s="78">
+      <c r="U50" s="77">
         <v>0.57916666666666672</v>
       </c>
-      <c r="V50" s="78">
+      <c r="V50" s="77">
         <v>0.5856365740740741</v>
       </c>
-      <c r="W50" s="78">
+      <c r="W50" s="77">
         <v>0.58680555555555558</v>
       </c>
-      <c r="X50" s="78">
+      <c r="X50" s="77">
         <v>0.76678240740740744</v>
       </c>
-      <c r="Y50" s="78">
+      <c r="Y50" s="77">
         <v>0.76597222222222228</v>
       </c>
-      <c r="Z50" s="78">
+      <c r="Z50" s="77">
         <v>0.77177083333333329</v>
       </c>
-      <c r="AA50" s="78">
+      <c r="AA50" s="77">
         <v>0.77847222222222223</v>
       </c>
-      <c r="AB50" s="78">
+      <c r="AB50" s="77">
         <v>0.78276620370370376</v>
       </c>
-      <c r="AC50" s="78">
+      <c r="AC50" s="77">
         <v>0.78125</v>
       </c>
-      <c r="AD50" s="80"/>
-      <c r="AE50" s="81">
+      <c r="AD50" s="79"/>
+      <c r="AE50" s="80">
         <v>0.78339120370370374</v>
       </c>
-      <c r="AF50" s="81">
+      <c r="AF50" s="80">
         <v>0.78339120370370374</v>
       </c>
-      <c r="AG50" s="81">
+      <c r="AG50" s="80">
         <v>0.79027777777777775</v>
       </c>
-      <c r="AH50" s="81">
+      <c r="AH50" s="80">
         <v>0.79027777777777775</v>
       </c>
-      <c r="AI50" s="79" t="s">
+      <c r="AI50" s="78" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5919,7 +5898,7 @@
       <c r="AH52" s="52"/>
       <c r="AI52" s="62"/>
     </row>
-    <row r="53" spans="1:35" s="76" customFormat="1" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" s="75" customFormat="1" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="70">
         <v>45394</v>
       </c>
@@ -5929,98 +5908,100 @@
       <c r="C53" s="72">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="74" t="s">
+      <c r="D53" s="89">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E53" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="74" t="s">
+      <c r="G53" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="74" t="s">
+      <c r="H53" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="I53" s="75" t="s">
+      <c r="I53" s="74" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="71">
         <v>31</v>
       </c>
-      <c r="K53" s="82">
+      <c r="K53" s="81">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L53" s="82">
+      <c r="L53" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M53" s="83" t="s">
+      <c r="M53" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="N53" s="84" t="s">
+      <c r="N53" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="O53" s="82">
+      <c r="O53" s="81">
         <v>0.28479166666666667</v>
       </c>
-      <c r="P53" s="82">
+      <c r="P53" s="81">
         <v>0.28333333333333333</v>
       </c>
-      <c r="Q53" s="82">
+      <c r="Q53" s="81">
         <v>0.28909722222222223</v>
       </c>
-      <c r="R53" s="82">
+      <c r="R53" s="81">
         <v>0.28819444444444442</v>
       </c>
-      <c r="S53" s="85">
+      <c r="S53" s="84">
         <v>0.28967592592592595</v>
       </c>
-      <c r="T53" s="82">
+      <c r="T53" s="81">
         <v>0.31709490740740742</v>
       </c>
-      <c r="U53" s="82">
+      <c r="U53" s="81">
         <v>0.31666666666666665</v>
       </c>
-      <c r="V53" s="82">
+      <c r="V53" s="81">
         <v>0.37456018518518519</v>
       </c>
-      <c r="W53" s="82">
+      <c r="W53" s="81">
         <v>0.37430555555555556</v>
       </c>
-      <c r="X53" s="82">
+      <c r="X53" s="81">
         <v>0.50523148148148145</v>
       </c>
-      <c r="Y53" s="82">
+      <c r="Y53" s="81">
         <v>0.51527777777777772</v>
       </c>
-      <c r="Z53" s="82">
+      <c r="Z53" s="81">
         <v>0.5248032407407407</v>
       </c>
-      <c r="AA53" s="82">
+      <c r="AA53" s="81">
         <v>0.52361111111111114</v>
       </c>
-      <c r="AB53" s="82">
+      <c r="AB53" s="81">
         <v>0.54642361111111115</v>
       </c>
-      <c r="AC53" s="82">
+      <c r="AC53" s="81">
         <v>0.54583333333333328</v>
       </c>
-      <c r="AD53" s="82">
+      <c r="AD53" s="81">
         <v>0.54675925925925928</v>
       </c>
-      <c r="AE53" s="86">
+      <c r="AE53" s="85">
         <v>0.54722222222222228</v>
       </c>
-      <c r="AF53" s="86">
+      <c r="AF53" s="85">
         <v>0.54722222222222228</v>
       </c>
-      <c r="AG53" s="86">
+      <c r="AG53" s="85">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AH53" s="86">
+      <c r="AH53" s="85">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AI53" s="83" t="s">
+      <c r="AI53" s="82" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6540,12 +6521,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1ae9cdc8-cb5f-4b90-a995-a55020e23403" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6b3902c-f109-4919-a292-2351a7767e7b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6778,20 +6761,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ae9cdc8-cb5f-4b90-a995-a55020e23403" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6b3902c-f109-4919-a292-2351a7767e7b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B9D92-4038-4301-8978-431923B94AE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4450FA85-4E6C-465A-94FF-64BAF436FA89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ae9cdc8-cb5f-4b90-a995-a55020e23403"/>
+    <ds:schemaRef ds:uri="f6b3902c-f109-4919-a292-2351a7767e7b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6816,18 +6806,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4450FA85-4E6C-465A-94FF-64BAF436FA89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B9D92-4038-4301-8978-431923B94AE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1ae9cdc8-cb5f-4b90-a995-a55020e23403"/>
-    <ds:schemaRef ds:uri="f6b3902c-f109-4919-a292-2351a7767e7b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>